--- a/NVIDIAアーキテクチャー.xlsx
+++ b/NVIDIAアーキテクチャー.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="240" yWindow="120" windowWidth="18315" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="36">
   <si>
     <t>入力層</t>
     <rPh sb="0" eb="2">
@@ -210,6 +211,9 @@
   <si>
     <t>←</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3@200x66</t>
   </si>
 </sst>
 </file>
@@ -340,6 +344,126 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5829300"/>
+          <a:ext cx="7620000" cy="8801100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="5829300"/>
+          <a:ext cx="7620000" cy="8801100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -629,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:T31"/>
+  <dimension ref="C2:T29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="G1" sqref="C1:G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -656,7 +780,7 @@
     <col min="20" max="20" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>28</v>
       </c>
@@ -667,12 +791,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>27</v>
       </c>
@@ -683,12 +807,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>26</v>
       </c>
@@ -699,12 +823,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
         <v>25</v>
       </c>
@@ -715,14 +839,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
-        <v>25</v>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C10" s="2" t="str">
+        <f>64*33*1&amp;"@"</f>
+        <v>2112@</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -731,55 +856,101 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.15">
-      <c r="C12" s="2" t="str">
-        <f>64*33*1&amp;"@"</f>
-        <v>2112@</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C12" t="str">
+        <f>C14</f>
+        <v>64@33x1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C14" t="str">
-        <f>C16</f>
+        <f>P15&amp;"@"&amp;R15&amp;"x"&amp;$T15</f>
         <v>64@33x1</v>
       </c>
-      <c r="D14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="D14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.15">
+      <c r="F15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="6" t="str">
+        <f>N15&amp;"ｘ"&amp;N15&amp;" KERNEL , "&amp;L15&amp;"ｘ"&amp;L15&amp;" STRIDE"</f>
+        <v>3ｘ3 KERNEL , 1ｘ1 STRIDE</v>
+      </c>
+      <c r="I15">
+        <v>35</v>
+      </c>
+      <c r="J15">
+        <v>3</v>
+      </c>
+      <c r="K15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15">
+        <v>64</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15">
+        <f>CEILING(($I15-($N15-1))/$L15,1)</f>
+        <v>33</v>
+      </c>
+      <c r="S15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T15">
+        <f>CEILING((J15-($N15-1))/$L15,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C16" t="str">
         <f>P17&amp;"@"&amp;R17&amp;"x"&amp;$T17</f>
-        <v>64@33x1</v>
+        <v>64@35x3</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G16" s="6"/>
     </row>
@@ -795,10 +966,10 @@
         <v>3ｘ3 KERNEL , 1ｘ1 STRIDE</v>
       </c>
       <c r="I17">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K17" t="s">
         <v>10</v>
@@ -823,26 +994,26 @@
       </c>
       <c r="R17">
         <f>CEILING(($I17-($N17-1))/$L17,1)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S17" t="s">
         <v>7</v>
       </c>
       <c r="T17">
         <f>CEILING((J17-($N17-1))/$L17,1)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C18" t="str">
         <f>P19&amp;"@"&amp;R19&amp;"x"&amp;$T19</f>
-        <v>64@35x3</v>
+        <v>48@37x5</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G18" s="6"/>
     </row>
@@ -855,57 +1026,57 @@
       </c>
       <c r="G19" s="6" t="str">
         <f>N19&amp;"ｘ"&amp;N19&amp;" KERNEL , "&amp;L19&amp;"ｘ"&amp;L19&amp;" STRIDE"</f>
-        <v>3ｘ3 KERNEL , 1ｘ1 STRIDE</v>
+        <v>5ｘ5 KERNEL , 2ｘ2 STRIDE</v>
       </c>
       <c r="I19">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="J19">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="K19" t="s">
         <v>10</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" t="s">
         <v>11</v>
       </c>
       <c r="N19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O19" t="s">
         <v>9</v>
       </c>
       <c r="P19">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="Q19" t="s">
         <v>8</v>
       </c>
       <c r="R19">
         <f>CEILING(($I19-($N19-1))/$L19,1)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="S19" t="s">
         <v>7</v>
       </c>
       <c r="T19">
         <f>CEILING((J19-($N19-1))/$L19,1)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C20" t="str">
         <f>P21&amp;"@"&amp;R21&amp;"x"&amp;$T21</f>
-        <v>48@37x5</v>
+        <v>36@77x14</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G20" s="6"/>
     </row>
@@ -921,10 +1092,10 @@
         <v>5ｘ5 KERNEL , 2ｘ2 STRIDE</v>
       </c>
       <c r="I21">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="J21">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="K21" t="s">
         <v>10</v>
@@ -942,33 +1113,33 @@
         <v>9</v>
       </c>
       <c r="P21">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Q21" t="s">
         <v>8</v>
       </c>
       <c r="R21">
         <f>CEILING(($I21-($N21-1))/$L21,1)</f>
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s">
         <v>7</v>
       </c>
       <c r="T21">
         <f>CEILING((J21-($N21-1))/$L21,1)</f>
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C22" t="str">
         <f>P23&amp;"@"&amp;R23&amp;"x"&amp;$T23</f>
-        <v>36@77x14</v>
+        <v>24@158x31</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G22" s="6"/>
     </row>
@@ -984,10 +1155,10 @@
         <v>5ｘ5 KERNEL , 2ｘ2 STRIDE</v>
       </c>
       <c r="I23">
-        <v>158</v>
+        <v>320</v>
       </c>
       <c r="J23">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="K23" t="s">
         <v>10</v>
@@ -1005,33 +1176,32 @@
         <v>9</v>
       </c>
       <c r="P23">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="Q23" t="s">
         <v>8</v>
       </c>
       <c r="R23">
         <f>CEILING(($I23-($N23-1))/$L23,1)</f>
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="S23" t="s">
         <v>7</v>
       </c>
       <c r="T23">
         <f>CEILING((J23-($N23-1))/$L23,1)</f>
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C24" t="str">
-        <f>P25&amp;"@"&amp;R25&amp;"x"&amp;$T25</f>
-        <v>24@158x31</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>17</v>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
       </c>
       <c r="G24" s="6"/>
     </row>
@@ -1039,50 +1209,12 @@
       <c r="C25" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="6" t="str">
-        <f>N25&amp;"ｘ"&amp;N25&amp;" KERNEL , "&amp;L25&amp;"ｘ"&amp;L25&amp;" STRIDE"</f>
-        <v>5ｘ5 KERNEL , 2ｘ2 STRIDE</v>
-      </c>
+      <c r="G25" s="6"/>
       <c r="I25">
         <v>320</v>
       </c>
       <c r="J25">
         <v>65</v>
-      </c>
-      <c r="K25" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25">
-        <v>2</v>
-      </c>
-      <c r="M25" t="s">
-        <v>11</v>
-      </c>
-      <c r="N25">
-        <v>5</v>
-      </c>
-      <c r="O25" t="s">
-        <v>9</v>
-      </c>
-      <c r="P25">
-        <v>24</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>8</v>
-      </c>
-      <c r="R25">
-        <f>CEILING(($I25-($N25-1))/$L25,1)</f>
-        <v>158</v>
-      </c>
-      <c r="S25" t="s">
-        <v>7</v>
-      </c>
-      <c r="T25">
-        <f>CEILING((J25-($N25-1))/$L25,1)</f>
-        <v>31</v>
       </c>
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.15">
@@ -1090,10 +1222,10 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G26" s="6"/>
     </row>
@@ -1102,63 +1234,601 @@
         <v>33</v>
       </c>
       <c r="G27" s="6"/>
-      <c r="I27">
-        <v>320</v>
-      </c>
-      <c r="J27">
-        <v>65</v>
-      </c>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>3</v>
+        <v>12</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>1</v>
       </c>
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
-        <v>33</v>
-      </c>
+      <c r="C29" s="1"/>
       <c r="G29" s="6"/>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G30" s="6"/>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.15">
-      <c r="C31" s="1"/>
-      <c r="G31" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C2:T31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="13.25" customWidth="1"/>
+    <col min="4" max="4" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="3.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C10" s="2" t="str">
+        <f>64*18*1&amp;"@"</f>
+        <v>1152@</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C12" t="str">
+        <f>C16</f>
+        <v>64@18x1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C14" t="str">
+        <f>P15&amp;"@"&amp;R15&amp;"x"&amp;$T15</f>
+        <v>64@16x-1</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="6" t="str">
+        <f>N15&amp;"ｘ"&amp;N15&amp;" KERNEL , "&amp;L15&amp;"ｘ"&amp;L15&amp;" STRIDE"</f>
+        <v>3ｘ3 KERNEL , 1ｘ1 STRIDE</v>
+      </c>
+      <c r="I15">
+        <v>18</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P15">
+        <v>64</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>8</v>
+      </c>
+      <c r="R15">
+        <f>CEILING(($I15-($N15-1))/$L15,1)</f>
+        <v>16</v>
+      </c>
+      <c r="S15" t="s">
+        <v>7</v>
+      </c>
+      <c r="T15">
+        <f>CEILING((J15-($N15-1))/$L15,1)</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C16" t="str">
+        <f>P17&amp;"@"&amp;R17&amp;"x"&amp;$T17</f>
+        <v>64@18x1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="6" t="str">
+        <f>N17&amp;"ｘ"&amp;N17&amp;" KERNEL , "&amp;L17&amp;"ｘ"&amp;L17&amp;" STRIDE"</f>
+        <v>3ｘ3 KERNEL , 1ｘ1 STRIDE</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>9</v>
+      </c>
+      <c r="P17">
+        <v>64</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>8</v>
+      </c>
+      <c r="R17">
+        <f>CEILING(($I17-($N17-1))/$L17,1)</f>
+        <v>18</v>
+      </c>
+      <c r="S17" t="s">
+        <v>7</v>
+      </c>
+      <c r="T17">
+        <f>CEILING((J17-($N17-1))/$L17,1)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C18" t="str">
+        <f>P19&amp;"@"&amp;R19&amp;"x"&amp;$T19</f>
+        <v>48@20x3</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="6" t="str">
+        <f>N19&amp;"ｘ"&amp;N19&amp;" KERNEL , "&amp;L19&amp;"ｘ"&amp;L19&amp;" STRIDE"</f>
+        <v>3ｘ3 KERNEL , 1ｘ1 STRIDE</v>
+      </c>
+      <c r="I19">
+        <v>22</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19">
+        <v>48</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>8</v>
+      </c>
+      <c r="R19">
+        <f>CEILING(($I19-($N19-1))/$L19,1)</f>
+        <v>20</v>
+      </c>
+      <c r="S19" t="s">
+        <v>7</v>
+      </c>
+      <c r="T19">
+        <f>CEILING((J19-($N19-1))/$L19,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C20" t="str">
+        <f>P21&amp;"@"&amp;R21&amp;"x"&amp;$T21</f>
+        <v>36@22x5</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="6" t="str">
+        <f>N21&amp;"ｘ"&amp;N21&amp;" KERNEL , "&amp;L21&amp;"ｘ"&amp;L21&amp;" STRIDE"</f>
+        <v>5ｘ5 KERNEL , 2ｘ2 STRIDE</v>
+      </c>
+      <c r="I21">
+        <v>47</v>
+      </c>
+      <c r="J21">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>2</v>
+      </c>
+      <c r="M21" t="s">
+        <v>11</v>
+      </c>
+      <c r="N21">
+        <v>5</v>
+      </c>
+      <c r="O21" t="s">
+        <v>9</v>
+      </c>
+      <c r="P21">
+        <v>36</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>8</v>
+      </c>
+      <c r="R21">
+        <f>CEILING(($I21-($N21-1))/$L21,1)</f>
+        <v>22</v>
+      </c>
+      <c r="S21" t="s">
+        <v>7</v>
+      </c>
+      <c r="T21">
+        <f>CEILING((J21-($N21-1))/$L21,1)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C22" t="str">
+        <f>P23&amp;"@"&amp;R23&amp;"x"&amp;$T23</f>
+        <v>24@47x14</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="6" t="str">
+        <f>N23&amp;"ｘ"&amp;N23&amp;" KERNEL , "&amp;L23&amp;"ｘ"&amp;L23&amp;" STRIDE"</f>
+        <v>5ｘ5 KERNEL , 2ｘ2 STRIDE</v>
+      </c>
+      <c r="I23">
+        <v>98</v>
+      </c>
+      <c r="J23">
+        <v>31</v>
+      </c>
+      <c r="K23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23" t="s">
+        <v>11</v>
+      </c>
+      <c r="N23">
+        <v>5</v>
+      </c>
+      <c r="O23" t="s">
+        <v>9</v>
+      </c>
+      <c r="P23">
+        <v>24</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>8</v>
+      </c>
+      <c r="R23">
+        <f>CEILING(($I23-($N23-1))/$L23,1)</f>
+        <v>47</v>
+      </c>
+      <c r="S23" t="s">
+        <v>7</v>
+      </c>
+      <c r="T23">
+        <f>CEILING((J23-($N23-1))/$L23,1)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C24" t="str">
+        <f>P25&amp;"@"&amp;R25&amp;"x"&amp;$T25</f>
+        <v>3@98x31</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="6" t="str">
+        <f>N25&amp;"ｘ"&amp;N25&amp;" KERNEL , "&amp;L25&amp;"ｘ"&amp;L25&amp;" STRIDE"</f>
+        <v>5ｘ5 KERNEL , 2ｘ2 STRIDE</v>
+      </c>
+      <c r="I25">
+        <v>200</v>
+      </c>
+      <c r="J25">
+        <v>66</v>
+      </c>
+      <c r="K25" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25" t="s">
+        <v>11</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25" t="s">
+        <v>9</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>8</v>
+      </c>
+      <c r="R25">
+        <f>CEILING(($I25-($N25-1))/$L25,1)</f>
+        <v>98</v>
+      </c>
+      <c r="S25" t="s">
+        <v>7</v>
+      </c>
+      <c r="T25">
+        <f>CEILING((J25-($N25-1))/$L25,1)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C26" t="str">
+        <f>P27&amp;"@"&amp;R27&amp;"x"&amp;$T27</f>
+        <v>3@200x66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="6"/>
+      <c r="P27">
+        <v>3</v>
+      </c>
+      <c r="R27">
+        <v>200</v>
+      </c>
+      <c r="T27">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.15">
+      <c r="C31" s="1"/>
+      <c r="G31" s="6"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1173,4 +1843,17 @@
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>